--- a/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2861722921302512</v>
+        <v>0.2874625376951912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5593059843924094</v>
+        <v>0.5631252383296478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4570506462113628</v>
+        <v>0.454585770802482</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3620794149485178</v>
+        <v>0.3626176704932214</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.616537449499084</v>
+        <v>0.6191545344832184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5028657135622309</v>
+        <v>0.5022608626401918</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2061396724831588</v>
+        <v>0.2067548828148154</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3220067539112593</v>
+        <v>0.3226790749795934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2690422078484823</v>
+        <v>0.2683257921811574</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2452809398786577</v>
+        <v>0.2453241249890376</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3611442970043136</v>
+        <v>0.3608747708013654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2958600799599034</v>
+        <v>0.2947691429763035</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1932460452442898</v>
+        <v>0.1932460452442897</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2865317397268978</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.165136921625798</v>
+        <v>0.1601194567458074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2581890181042009</v>
+        <v>0.2570233106126397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2191570220210566</v>
+        <v>0.2204011886355331</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2379041417882186</v>
+        <v>0.2318527592174705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3183825484903746</v>
+        <v>0.3177058991097111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2653961830570484</v>
+        <v>0.2617703027754087</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3852545969333233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3121937690805193</v>
+        <v>0.3121937690805194</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2204191018385335</v>
+        <v>0.2196899004537386</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3712589851802627</v>
+        <v>0.3725881313345196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3009549468432135</v>
+        <v>0.3019866867042607</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2513400430013284</v>
+        <v>0.2513527170259707</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3995943184971503</v>
+        <v>0.3997760559846055</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3223099116676875</v>
+        <v>0.3231029181978435</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>165559</v>
+        <v>166305</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>459771</v>
+        <v>462910</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>640130</v>
+        <v>636678</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>209473</v>
+        <v>209785</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>506817</v>
+        <v>508969</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>704297</v>
+        <v>703450</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>459808</v>
+        <v>461180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>699203</v>
+        <v>700663</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1184313</v>
+        <v>1181159</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>547115</v>
+        <v>547212</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>784186</v>
+        <v>783601</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1302364</v>
+        <v>1297562</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>117509</v>
+        <v>113939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>189737</v>
+        <v>188881</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>317003</v>
+        <v>318802</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>169289</v>
+        <v>164983</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>233972</v>
+        <v>233475</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>383886</v>
+        <v>378641</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>776026</v>
+        <v>773458</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1384167</v>
+        <v>1389123</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2181619</v>
+        <v>2189098</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>884889</v>
+        <v>884933</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1489810</v>
+        <v>1490488</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2336421</v>
+        <v>2342170</v>
       </c>
     </row>
     <row r="20">
